--- a/data/raw/excel/VM_Spatial_Unit.xlsx
+++ b/data/raw/excel/VM_Spatial_Unit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c55ba288b6d60b4a/gvs-kyiv/data/raw/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{89FAC55D-6C0F-4A44-A7FA-2A5A0F8C5FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3FE806F-ED70-42C5-9D7E-4B34E57728D2}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{89FAC55D-6C0F-4A44-A7FA-2A5A0F8C5FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA5E34E-F44C-46D5-BC39-1C361574D833}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="24500" windowHeight="19690" xr2:uid="{973263AB-F4B6-4F66-AB53-E1A53EFE3A77}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="23230" windowHeight="19690" xr2:uid="{973263AB-F4B6-4F66-AB53-E1A53EFE3A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Spatial_Unit" sheetId="1" r:id="rId1"/>
@@ -3028,9 +3028,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AY155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AL1" sqref="AL1"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI130" sqref="AI130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -3206,7 +3206,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="79.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" ht="79.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:51" ht="66" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5644,7 +5644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -8074,7 +8074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -8458,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -8586,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -9098,7 +9098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -9358,7 +9358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -10516,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:51" ht="65" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:51" ht="65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -12086,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -13126,7 +13126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -13386,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -14166,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -14690,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -15754,7 +15754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -15886,7 +15886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -16018,7 +16018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -16282,7 +16282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:51" ht="91" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:51" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -16682,7 +16682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -16816,7 +16816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -16950,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -17084,7 +17084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -17348,7 +17348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -17748,7 +17748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -17882,7 +17882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -18014,7 +18014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -18146,7 +18146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:51" ht="91" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:51" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -18680,7 +18680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:51" ht="91" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:51" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:51" ht="91" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:51" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -18948,7 +18948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:51" ht="91" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:51" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -19218,7 +19218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -19352,7 +19352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:51" ht="91" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:51" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -19486,7 +19486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:51" ht="91" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:51" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -19622,7 +19622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:51" ht="91" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:51" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -19758,7 +19758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:51" ht="91" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:51" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -20030,7 +20030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -20168,7 +20168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:51" ht="91" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:51" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -20304,7 +20304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:51" ht="91" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:51" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -20438,7 +20438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:51" ht="91" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:51" ht="91" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -20572,7 +20572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -20704,7 +20704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -20834,7 +20834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -21098,7 +21098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -21228,7 +21228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -21360,7 +21360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -21490,7 +21490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -21620,7 +21620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -21752,7 +21752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -21882,7 +21882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -22012,7 +22012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -22142,7 +22142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -22272,7 +22272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -22402,7 +22402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -22532,7 +22532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -22666,7 +22666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -22796,7 +22796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -22930,7 +22930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -23062,7 +23062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -23194,7 +23194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:51" ht="78" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -23326,6 +23326,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AX155" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="8000000000:75:792:0102"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="37">
       <filters>
         <filter val="5"/>

--- a/data/raw/excel/VM_Spatial_Unit.xlsx
+++ b/data/raw/excel/VM_Spatial_Unit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c55ba288b6d60b4a/gvs-kyiv/data/raw/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{89FAC55D-6C0F-4A44-A7FA-2A5A0F8C5FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA5E34E-F44C-46D5-BC39-1C361574D833}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{89FAC55D-6C0F-4A44-A7FA-2A5A0F8C5FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D9BD7B3-B0DC-4A97-BE0F-3598395E490B}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="23230" windowHeight="19690" xr2:uid="{973263AB-F4B6-4F66-AB53-E1A53EFE3A77}"/>
+    <workbookView xWindow="12690" yWindow="4540" windowWidth="28800" windowHeight="15370" xr2:uid="{973263AB-F4B6-4F66-AB53-E1A53EFE3A77}"/>
   </bookViews>
   <sheets>
     <sheet name="Spatial_Unit" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4797" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4797" uniqueCount="850">
   <si>
     <t>№</t>
   </si>
@@ -2537,9 +2537,6 @@
   </si>
   <si>
     <t>garden_society_name</t>
-  </si>
-  <si>
-    <t>location_descriptio</t>
   </si>
   <si>
     <t>area_m2</t>
@@ -3028,9 +3025,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AY155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI130" sqref="AI130"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN5" sqref="AN5:AW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -3065,7 +3062,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -3203,7 +3200,7 @@
         <v>846</v>
       </c>
       <c r="AY1" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
@@ -3214,7 +3211,7 @@
         <v>82778080170</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D2" s="3" t="b">
         <v>1</v>
@@ -3344,7 +3341,7 @@
         <v>84361615250</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D3" s="3" t="b">
         <v>1</v>
@@ -3474,7 +3471,7 @@
         <v>19287105240</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D4" s="3" t="b">
         <v>1</v>
@@ -3602,7 +3599,7 @@
         <v>56581911720</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>1</v>
@@ -3728,7 +3725,7 @@
         <v>19945083410</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
@@ -3856,7 +3853,7 @@
         <v>33026683430</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
@@ -3986,7 +3983,7 @@
         <v>17422628530</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>1</v>
@@ -4114,7 +4111,7 @@
         <v>36677859450</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>1</v>
@@ -4244,7 +4241,7 @@
         <v>65292809080</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D10" s="3" t="b">
         <v>1</v>
@@ -4372,7 +4369,7 @@
         <v>99688356300</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D11" s="3" t="b">
         <v>1</v>
@@ -4498,7 +4495,7 @@
         <v>17381871750</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>1</v>
@@ -4628,7 +4625,7 @@
         <v>5094648050</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D13" s="3" t="b">
         <v>1</v>
@@ -4758,7 +4755,7 @@
         <v>17133289200</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D14" s="3" t="b">
         <v>1</v>
@@ -4886,7 +4883,7 @@
         <v>38382525340</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D15" s="3" t="b">
         <v>1</v>
@@ -5014,7 +5011,7 @@
         <v>52167916730</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D16" s="3" t="b">
         <v>1</v>
@@ -5142,7 +5139,7 @@
         <v>23962490370</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>1</v>
@@ -5270,7 +5267,7 @@
         <v>95639659780</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D18" s="3" t="b">
         <v>1</v>
@@ -5400,7 +5397,7 @@
         <v>39992974550</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D19" s="3" t="b">
         <v>1</v>
@@ -5524,7 +5521,7 @@
         <v>11380612920</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D20" s="3" t="b">
         <v>1</v>
@@ -5652,7 +5649,7 @@
         <v>58767767510</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D21" s="3" t="b">
         <v>1</v>
@@ -5782,7 +5779,7 @@
         <v>30222736230</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D22" s="3" t="b">
         <v>1</v>
@@ -5912,7 +5909,7 @@
         <v>17121743620</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>1</v>
@@ -6040,7 +6037,7 @@
         <v>91899718940</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D24" s="3" t="b">
         <v>1</v>
@@ -6170,7 +6167,7 @@
         <v>7047055190</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D25" s="3" t="b">
         <v>1</v>
@@ -6300,7 +6297,7 @@
         <v>9156930940</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D26" s="3" t="b">
         <v>1</v>
@@ -6426,7 +6423,7 @@
         <v>67061964050</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D27" s="3" t="b">
         <v>1</v>
@@ -6548,7 +6545,7 @@
         <v>85148168920</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D28" s="3" t="b">
         <v>1</v>
@@ -6676,7 +6673,7 @@
         <v>94333841980</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D29" s="3" t="b">
         <v>1</v>
@@ -6804,7 +6801,7 @@
         <v>68003063580</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D30" s="3" t="b">
         <v>1</v>
@@ -6930,7 +6927,7 @@
         <v>62134981090</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D31" s="3" t="b">
         <v>1</v>
@@ -7058,7 +7055,7 @@
         <v>94836400</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D32" s="3" t="b">
         <v>1</v>
@@ -7178,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:51" ht="78" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -7186,7 +7183,7 @@
         <v>46566871120</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D33" s="3" t="b">
         <v>1</v>
@@ -7314,7 +7311,7 @@
         <v>3350862410</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D34" s="3" t="b">
         <v>1</v>
@@ -7444,7 +7441,7 @@
         <v>2614903410</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D35" s="3" t="b">
         <v>1</v>
@@ -7570,7 +7567,7 @@
         <v>11458936260</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D36" s="3" t="b">
         <v>1</v>
@@ -7698,7 +7695,7 @@
         <v>19503893420</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D37" s="3" t="b">
         <v>1</v>
@@ -7826,7 +7823,7 @@
         <v>41114335720</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D38" s="3" t="b">
         <v>1</v>
@@ -7954,7 +7951,7 @@
         <v>67525702300</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D39" s="3" t="b">
         <v>1</v>
@@ -8082,7 +8079,7 @@
         <v>10917815100</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D40" s="3" t="b">
         <v>1</v>
@@ -8210,7 +8207,7 @@
         <v>10126903830</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D41" s="3" t="b">
         <v>1</v>
@@ -8338,7 +8335,7 @@
         <v>64106514240</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D42" s="3" t="b">
         <v>1</v>
@@ -8466,7 +8463,7 @@
         <v>97181956660</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D43" s="3" t="b">
         <v>1</v>
@@ -8594,7 +8591,7 @@
         <v>71841332160</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D44" s="3" t="b">
         <v>1</v>
@@ -8722,7 +8719,7 @@
         <v>98505942010</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D45" s="3" t="b">
         <v>1</v>
@@ -8852,7 +8849,7 @@
         <v>24964801020</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D46" s="3" t="b">
         <v>1</v>
@@ -8976,7 +8973,7 @@
         <v>77544027230</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D47" s="3" t="b">
         <v>1</v>
@@ -9106,7 +9103,7 @@
         <v>64220453970</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D48" s="3" t="b">
         <v>1</v>
@@ -9234,7 +9231,7 @@
         <v>91870389520</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D49" s="3" t="b">
         <v>1</v>
@@ -9366,7 +9363,7 @@
         <v>98112473310</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D50" s="3" t="b">
         <v>1</v>
@@ -9496,7 +9493,7 @@
         <v>89352610850</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D51" s="3" t="b">
         <v>1</v>
@@ -9626,7 +9623,7 @@
         <v>88971645920</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D52" s="3" t="b">
         <v>1</v>
@@ -9748,7 +9745,7 @@
         <v>52456688440</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D53" s="3" t="b">
         <v>1</v>
@@ -9876,7 +9873,7 @@
         <v>3149392830</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D54" s="3" t="b">
         <v>1</v>
@@ -10004,7 +10001,7 @@
         <v>67721286070</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D55" s="3" t="b">
         <v>1</v>
@@ -10260,7 +10257,7 @@
         <v>3232136280</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D57" s="3" t="b">
         <v>1</v>
@@ -10390,7 +10387,7 @@
         <v>73586862760</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D58" s="3" t="b">
         <v>1</v>
@@ -10524,7 +10521,7 @@
         <v>31258069910</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D59" s="3" t="b">
         <v>1</v>
@@ -10654,7 +10651,7 @@
         <v>23159723790</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D60" s="3" t="b">
         <v>1</v>
@@ -10784,7 +10781,7 @@
         <v>71659273760</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D61" s="3" t="b">
         <v>1</v>
@@ -10914,7 +10911,7 @@
         <v>58637835020</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D62" s="3" t="b">
         <v>1</v>
@@ -11044,7 +11041,7 @@
         <v>36080013280</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D63" s="3" t="b">
         <v>1</v>
@@ -11174,7 +11171,7 @@
         <v>38383764880</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D64" s="3" t="b">
         <v>1</v>
@@ -11302,7 +11299,7 @@
         <v>50832999210</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D65" s="3" t="b">
         <v>1</v>
@@ -11434,7 +11431,7 @@
         <v>47656777490</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D66" s="3" t="b">
         <v>1</v>
@@ -11564,7 +11561,7 @@
         <v>71127467100</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D67" s="3" t="b">
         <v>1</v>
@@ -11696,7 +11693,7 @@
         <v>47308270300</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D68" s="3" t="b">
         <v>1</v>
@@ -11830,7 +11827,7 @@
         <v>4931247590</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D69" s="3" t="b">
         <v>1</v>
@@ -11964,7 +11961,7 @@
         <v>5401720930</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D70" s="3" t="b">
         <v>1</v>
@@ -12094,7 +12091,7 @@
         <v>49239264630</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D71" s="3" t="b">
         <v>1</v>
@@ -12224,7 +12221,7 @@
         <v>125368560</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D72" s="3" t="b">
         <v>1</v>
@@ -12356,7 +12353,7 @@
         <v>68599666720</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D73" s="3" t="b">
         <v>1</v>
@@ -12486,7 +12483,7 @@
         <v>47375522940</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D74" s="3" t="b">
         <v>1</v>
@@ -12616,7 +12613,7 @@
         <v>89005639790</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D75" s="3" t="b">
         <v>1</v>
@@ -12742,7 +12739,7 @@
         <v>22153381690</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D76" s="3" t="b">
         <v>1</v>
@@ -12874,7 +12871,7 @@
         <v>73841147870</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D77" s="3" t="b">
         <v>1</v>
@@ -13004,7 +13001,7 @@
         <v>92061903470</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D78" s="3" t="b">
         <v>1</v>
@@ -13134,7 +13131,7 @@
         <v>5796323870</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D79" s="3" t="b">
         <v>1</v>
@@ -13264,7 +13261,7 @@
         <v>31369277340</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D80" s="3" t="b">
         <v>1</v>
@@ -13394,7 +13391,7 @@
         <v>15779259870</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D81" s="3" t="b">
         <v>1</v>
@@ -13524,7 +13521,7 @@
         <v>23957553090</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D82" s="3" t="b">
         <v>1</v>
@@ -13646,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:51" ht="78" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -13654,7 +13651,7 @@
         <v>12945607070</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D83" s="3" t="b">
         <v>1</v>
@@ -13784,7 +13781,7 @@
         <v>54775126250</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D84" s="3" t="b">
         <v>1</v>
@@ -13914,7 +13911,7 @@
         <v>24332493870</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D85" s="3" t="b">
         <v>1</v>
@@ -14044,7 +14041,7 @@
         <v>77703310000</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D86" s="3" t="b">
         <v>1</v>
@@ -14174,7 +14171,7 @@
         <v>75775621620</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D87" s="3" t="b">
         <v>1</v>
@@ -14304,7 +14301,7 @@
         <v>62678557910</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D88" s="3" t="b">
         <v>1</v>
@@ -14434,7 +14431,7 @@
         <v>35991777030</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D89" s="3" t="b">
         <v>1</v>
@@ -14566,7 +14563,7 @@
         <v>84939687270</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D90" s="3" t="b">
         <v>1</v>
@@ -14698,7 +14695,7 @@
         <v>77669097650</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D91" s="3" t="b">
         <v>1</v>
@@ -14830,7 +14827,7 @@
         <v>943004690</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D92" s="3" t="b">
         <v>1</v>
@@ -14960,7 +14957,7 @@
         <v>61578555690</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D93" s="3" t="b">
         <v>1</v>
@@ -15094,7 +15091,7 @@
         <v>80822387250</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D94" s="3" t="b">
         <v>1</v>
@@ -15218,7 +15215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:51" ht="26" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -15226,7 +15223,7 @@
         <v>32617110410</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D95" s="3" t="b">
         <v>1</v>
@@ -15364,7 +15361,7 @@
         <v>8069376540</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D96" s="3" t="b">
         <v>1</v>
@@ -15498,7 +15495,7 @@
         <v>28044915470</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D97" s="3" t="b">
         <v>1</v>
@@ -15630,7 +15627,7 @@
         <v>23551223500</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D98" s="3" t="b">
         <v>1</v>
@@ -15762,7 +15759,7 @@
         <v>86521747410</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D99" s="3" t="b">
         <v>1</v>
@@ -15894,7 +15891,7 @@
         <v>24026701270</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D100" s="3" t="b">
         <v>1</v>
@@ -16026,7 +16023,7 @@
         <v>8768973990</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D101" s="3" t="b">
         <v>1</v>
@@ -16158,7 +16155,7 @@
         <v>45918489210</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D102" s="3" t="b">
         <v>1</v>
@@ -16290,7 +16287,7 @@
         <v>23854248120</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D103" s="3" t="b">
         <v>1</v>
@@ -16422,7 +16419,7 @@
         <v>30864987250</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D104" s="3" t="b">
         <v>1</v>
@@ -16558,7 +16555,7 @@
         <v>27353076450</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D105" s="3" t="b">
         <v>1</v>
@@ -16690,7 +16687,7 @@
         <v>95424592980</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D106" s="3" t="b">
         <v>1</v>
@@ -16824,7 +16821,7 @@
         <v>35189400770</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D107" s="3" t="b">
         <v>1</v>
@@ -16958,7 +16955,7 @@
         <v>99269772910</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D108" s="3" t="b">
         <v>1</v>
@@ -17084,7 +17081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:51" ht="78" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -17092,7 +17089,7 @@
         <v>77227950460</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D109" s="3" t="b">
         <v>1</v>
@@ -17224,7 +17221,7 @@
         <v>28922083190</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D110" s="3" t="b">
         <v>1</v>
@@ -17356,7 +17353,7 @@
         <v>99019062960</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D111" s="3" t="b">
         <v>1</v>
@@ -17488,7 +17485,7 @@
         <v>43246550730</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D112" s="3" t="b">
         <v>1</v>
@@ -17622,7 +17619,7 @@
         <v>68903306620</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D113" s="3" t="b">
         <v>1</v>
@@ -17756,7 +17753,7 @@
         <v>94721892660</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D114" s="3" t="b">
         <v>1</v>
@@ -17890,7 +17887,7 @@
         <v>85264241140</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D115" s="3" t="b">
         <v>1</v>
@@ -18022,7 +18019,7 @@
         <v>31392602320</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D116" s="3" t="b">
         <v>1</v>
@@ -18154,7 +18151,7 @@
         <v>95298384640</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D117" s="3" t="b">
         <v>1</v>
@@ -18286,7 +18283,7 @@
         <v>30312418900</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D118" s="3" t="b">
         <v>1</v>
@@ -18418,7 +18415,7 @@
         <v>95707647850</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D119" s="3" t="b">
         <v>1</v>
@@ -18554,7 +18551,7 @@
         <v>73941664360</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D120" s="3" t="b">
         <v>1</v>
@@ -18688,7 +18685,7 @@
         <v>46112145440</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D121" s="3" t="b">
         <v>1</v>
@@ -18822,7 +18819,7 @@
         <v>822329890</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D122" s="3" t="b">
         <v>1</v>
@@ -18956,7 +18953,7 @@
         <v>99945193230</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D123" s="3" t="b">
         <v>1</v>
@@ -19090,7 +19087,7 @@
         <v>82903085920</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D124" s="3" t="b">
         <v>1</v>
@@ -19226,7 +19223,7 @@
         <v>7457338550</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D125" s="3" t="b">
         <v>1</v>
@@ -19360,7 +19357,7 @@
         <v>28265185080</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D126" s="3" t="b">
         <v>1</v>
@@ -19486,7 +19483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:51" ht="91" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:51" ht="91" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -19494,7 +19491,7 @@
         <v>88913483180</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D127" s="3" t="b">
         <v>1</v>
@@ -19630,7 +19627,7 @@
         <v>43587204130</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D128" s="3" t="b">
         <v>1</v>
@@ -19766,7 +19763,7 @@
         <v>81606617770</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D129" s="3" t="b">
         <v>1</v>
@@ -19892,7 +19889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:51" ht="26" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:51" ht="26" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -19900,7 +19897,7 @@
         <v>19572494460</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D130" s="3" t="b">
         <v>1</v>
@@ -20038,7 +20035,7 @@
         <v>91872428920</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D131" s="3" t="b">
         <v>1</v>
@@ -20176,7 +20173,7 @@
         <v>85591028960</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D132" s="3" t="b">
         <v>1</v>
@@ -20312,7 +20309,7 @@
         <v>95294287720</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D133" s="3" t="b">
         <v>1</v>
@@ -20446,7 +20443,7 @@
         <v>91287189320</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D134" s="3" t="b">
         <v>1</v>
@@ -20580,7 +20577,7 @@
         <v>132875150</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D135" s="3" t="b">
         <v>1</v>
@@ -20712,7 +20709,7 @@
         <v>82568003900</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D136" s="3" t="b">
         <v>1</v>
@@ -20842,7 +20839,7 @@
         <v>44432766890</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D137" s="3" t="b">
         <v>1</v>
@@ -20974,7 +20971,7 @@
         <v>4267456900</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D138" s="3" t="b">
         <v>1</v>
@@ -21106,7 +21103,7 @@
         <v>17538672260</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D139" s="3" t="b">
         <v>1</v>
@@ -21236,7 +21233,7 @@
         <v>21457507620</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D140" s="3" t="b">
         <v>1</v>
@@ -21368,7 +21365,7 @@
         <v>35665541550</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D141" s="3" t="b">
         <v>1</v>
@@ -21498,7 +21495,7 @@
         <v>22240002850</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D142" s="3" t="b">
         <v>1</v>
@@ -21620,7 +21617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:51" ht="78" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -21628,7 +21625,7 @@
         <v>11130779600</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D143" s="3" t="b">
         <v>1</v>
@@ -21760,7 +21757,7 @@
         <v>71215767320</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D144" s="3" t="b">
         <v>1</v>
@@ -21890,7 +21887,7 @@
         <v>4258684760</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D145" s="3" t="b">
         <v>1</v>
@@ -22020,7 +22017,7 @@
         <v>84499054140</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D146" s="3" t="b">
         <v>1</v>
@@ -22150,7 +22147,7 @@
         <v>69119133710</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D147" s="3" t="b">
         <v>1</v>
@@ -22280,7 +22277,7 @@
         <v>42748278830</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D148" s="3" t="b">
         <v>1</v>
@@ -22410,7 +22407,7 @@
         <v>1874927390</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D149" s="3" t="b">
         <v>1</v>
@@ -22540,7 +22537,7 @@
         <v>21848428010</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D150" s="3" t="b">
         <v>1</v>
@@ -22674,7 +22671,7 @@
         <v>6968729700</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D151" s="3" t="b">
         <v>1</v>
@@ -22804,7 +22801,7 @@
         <v>14583027040</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D152" s="3" t="b">
         <v>1</v>
@@ -22938,7 +22935,7 @@
         <v>90444628490</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D153" s="3" t="b">
         <v>1</v>
@@ -23070,7 +23067,7 @@
         <v>13112069180</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D154" s="3" t="b">
         <v>1</v>
@@ -23194,7 +23191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:51" ht="78" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:51" ht="78" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -23202,7 +23199,7 @@
         <v>55609184780</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D155" s="3" t="b">
         <v>1</v>
@@ -23328,12 +23325,13 @@
   <autoFilter ref="A1:AX155" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="5">
       <filters>
-        <filter val="8000000000:75:792:0102"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="37">
-      <filters>
-        <filter val="5"/>
+        <filter val="8000000000:72:513:0009"/>
+        <filter val="8000000000:72:523:0009"/>
+        <filter val="8000000000:79:034:0009"/>
+        <filter val="8000000000:79:313:0009"/>
+        <filter val="8000000000:90:971:0009"/>
+        <filter val="8000000000:91:023:0009"/>
+        <filter val="8000000000:91:500:0009"/>
       </filters>
     </filterColumn>
   </autoFilter>
